--- a/Excel/本地化数据_江湖小报.xlsx
+++ b/Excel/本地化数据_江湖小报.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\Steam\steamapps\common\WulinSH\Wulin_Data\StreamingAssets\ModEditor\ModEditor\Assets\_Mods\KoreanTranslation\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAB79B3-BE20-4D26-BBF3-CBEAEA8B90E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="3915" yWindow="1830" windowWidth="32040" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LocData@Info" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="393">
   <si>
     <t>备注</t>
   </si>
@@ -289,7 +282,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>{0}</t>
     </r>
@@ -298,7 +291,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>惊现顶级拍品</t>
     </r>
@@ -307,7 +299,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>{1}</t>
     </r>
@@ -316,7 +308,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>，经过一番精彩激烈的角逐，终于被</t>
     </r>
@@ -325,7 +316,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>{2}</t>
     </r>
@@ -334,7 +325,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>收获囊中。</t>
     </r>
@@ -346,18 +336,12 @@
     <t>{0} has unveiled a top-tier auction item {1}. After a thrilling competition, it was finally won by {2}.</t>
   </si>
   <si>
-    <t>NoTranslate</t>
-  </si>
-  <si>
     <t>NewsContent_UnitedWanted_Seperator</t>
   </si>
   <si>
     <t>、</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>TestKey_逸闻掌故_1</t>
   </si>
   <si>
@@ -1055,391 +1039,297 @@
   </si>
   <si>
     <t>end</t>
+  </si>
+  <si>
+    <t>{0}의 {1}과 {2}적대하면, 곧 {2} 의 전력을 마주하게 될 것이다</t>
+  </si>
+  <si>
+    <t>{0}과 {1}이 공동으로 강호에 현상금을 걸었습니다. {2}를 발견한 제자는 그 자리에서 그를 처형할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>여러 협객들이 강호를 돌아다니는 것을 돕기 위해，본 작은 신문은 정식으로 연재를 시작하는데，여러 대협들이 이 불안정한 시국에서 본 작은 신문의 도움으로 자신의 세계를 개척할 수 있기를 바랍니다</t>
+  </si>
+  <si>
+    <t>{0}에서 최상위 경매 물품 {1}을 공개했습니다. 스릴 넘치는 경쟁 끝에 {2}가 최종 낙찰되었습니다.</t>
+  </si>
+  <si>
+    <t>5년전, 변경이 함락되고 2종이 북연에 포획되자 강왕은 황급히 도망쳤으며 8명의 대협의 호송하에 시련을 겪으면서 마침내 생천을 벗어났으며 임안성에 신송정권을 다시 건립하고 북연과 끝까지 항쟁할것을 맹세했다.</t>
+  </si>
+  <si>
+    <t>10년 전, 북연철기는 빈번히 우리 대송 북강을 괴롭혔다. 대송 장병들은 안일한 지 이미 오래되어 기세등등한 북연기병에 저항할 수 없었다. 일시에 병패는 산처럼 쓰러졌고, 국경 백성들은 도탄에 빠졌으며, 대송 국운은 누란처럼 위태로웠다.</t>
+  </si>
+  <si>
+    <t>5년전, 변경이 함락된후 북연은 북방의 정세를 공고히 하고 유욕을 왕으로 삼기 위해"제"를 국호로 괴뢰정권을 건립하였다.</t>
+  </si>
+  <si>
+    <t>15년전, 휘제는 참언을 잘못 믿었고 양가일족은 참혹하게 멸문당했으며 천하를 뒤흔든 양가이화창법도 이때로부터 세상에 알려지지 않았다. 더욱이 이로 하여 북방 연나라는 숨쉬고 발전할수 있었으며 최종적으로 변경이 함락되였다.</t>
+  </si>
+  <si>
+    <t>12년전, 방소천은 서역 천산에서"성화종"을 창립하고 천하지사를 널리 모집하여 인차 만만치 않은 세력으로 강대해졌고 대송은 여러차례 군대를 파견하고 포위토벌하였지만 모두 실패했다.</t>
+  </si>
+  <si>
+    <t>14년전，왜족이 동해에서 대송에 등록하고 동해의 한 섬에 자체로 성못을 건설하였는데 이름은'왕일성'이다 대송해군은 수년이 걸려도 왕일성의 소재를 찾지 못했다 현재 왜인 무사가 중원의 각 문파에 도전하는 경우가 많다 그 사람은 악랄하게 손을 써서 무덕을 중시하지 않아 각 문파에 의해 멸시를 받고 있다</t>
+  </si>
+  <si>
+    <t>4년 전，석법사 주지 불인 스님은 내상으로 폐관하여 정수하였는데，지금까지도 여전히 출관하지 못하고 있다</t>
+  </si>
+  <si>
+    <t>5년전，북연이 변경성을 격파할 때 8명의 익명의 대협이 변경성에서 힘을 합쳐 변경을 수호하면서 적병의 공세에 조금도 두려워하는 기색이 없이 일당천으로 맞섰지만 끝내 대세를 돌려세우기 어려웠고 강왕이 임안으로 남하하는것을 보호할수 밖에 없었다</t>
+  </si>
+  <si>
+    <t>시왕야： 전조 황실의 후손은 재력이 매우 풍부해서 강왕의 즉위를 옹호하여 왕작을 받은 신송의 3대 동량 중의 하나입니다</t>
+  </si>
+  <si>
+    <t>엽붕거: 엽가군의 원수는 능력이 높고 사람됨이 정직하며 병사를 아들처럼 거느리고 여러차례 북연의 공세를 격파한것은 신송의 3대 동량중의 하나이다.</t>
+  </si>
+  <si>
+    <t>화엄선사： 석법사의 현 주지는 젊었을 때 뜨거운 피로 강호를 걸었고，수많은 살악을 저질렀으며，후에 감화를 거쳐 낭자가 고개를 돌려 불법을 정수하여 이미 한 세대의 고승이 되었다</t>
+  </si>
+  <si>
+    <t>지저분장: 도현종의 장문인 중양자의 후배는 일하는 태도가 자유롭고 미친 듯이 행동하지만 무학의 기재로 무공이 뛰어나다.</t>
+  </si>
+  <si>
+    <t>검치: 사람은 그 이름과 같고, 좋은 칼은 바보와 같다. 검술은 이미 화경에 이르렀고, 지금까지 적수가 없다. 강호에 몇 년 동안 은거하여 현재 장검산장의 장주가 되었다.</t>
+  </si>
+  <si>
+    <t>유생무장: 왕일성의 지도자로서 류생검도세가에서 태여나 일찍 주검세가 오야가를 토벌하였다.</t>
+  </si>
+  <si>
+    <t>진일: 구강수채의 수령은"귀천을 기다리면 빈부를 균등히 한다."는 구호로 대량의 추종자를 모았는데 강호의 큰 호협이였다.</t>
+  </si>
+  <si>
+    <t>당태군: 만수산장의 로장주는 사람됨이 과단성있고 사리에 밝으며 일찍 엽가군을 도와 북연을 항격하여 많은 시련을 겪었지만 조금도 동요하지 않았다.지금은 고령으로 장중에 은거하고 있다.</t>
+  </si>
+  <si>
+    <t>홍소칠: 이름 없는 작은 마을에서 어슬렁어슬렁 돌아다니는 작은 거지는 성격이 불량배이고 얽매이지 않고 발칙하고 불량배이다. 만약 그를 만난다면 좀 멀리 떨어져 있는 것이 좋겠다.</t>
+  </si>
+  <si>
+    <t>무명소촌 객잔 주모： 무명소촌 객잔 주모，혼자 객잔을 경영하는데，솜씨와 생김새가 모두 일품이다 아쉽게도 성질은 정말……</t>
+  </si>
+  <si>
+    <t>무명소촌 촌장： 일찍이 장원랑은 촌장을 평생 맡았는데，그 아들은 외지에 나가 강호를 떠돌아다녔기 때문에 참혹하게 불행을 당했기 때문에 강호 인사에 대해 편견을 가지고 있었다</t>
+  </si>
+  <si>
+    <t>무명소촌 사냥꾼: 무명소촌의 사냥꾼은 사냥능력이 일류이지만 줄곧 사람과 거리를 두면서 종래로 깊이 사귀지 않았다.그가 기르는 큰 늑대와 개는 매우 사나우니 반드시 조심해야 한다.</t>
+  </si>
+  <si>
+    <t>공일도: 청풍채의 대당가는 능력이 높고 사람됨이 호방하지만 산적의 우두머리로서 곳곳에서 수하를 단속하기 때문에 청풍채 일대는 산적에게 연루되지 않았다.</t>
+  </si>
+  <si>
+    <t>엽은병： 엽붕거의 애녀는 마침 두구이고 열혈이 있어 아버지의 보호하에 안주하고 싶지 않아 외지에 나가 강호를 떠돌아다니려 한다</t>
+  </si>
+  <si>
+    <t>엽운: 엽붕거의 장남은 아버지의 고강한 능력을 계승하였지만 성격이 조급하고 가르침을 받지 않았으며 여러차례 전공을 세웠고 군규도 여러차례 범했지만 흔치 않은 인재였다.</t>
+  </si>
+  <si>
+    <t>구패구식： 검치가 무학에 대한 대성작은 평범해 보이지만 각 무학을 반격할 수 있어 무수가 이기고 수가 있는 경지에 이르렀다</t>
+  </si>
+  <si>
+    <t>천리강산: 유성관의 필법비적, 필봉이 떨어지는 곳은 모두 대송의 천리강산이다. 현미지극하면서도 살기를 숨기고 있어 당해내기 어렵다.</t>
+  </si>
+  <si>
+    <t>무봉검법： 검치령검법의 극치，더 이상 검봉으로 사람을 다치게 하지 않아도 검 아래에서 사람을 만들 수 있는 고심막측한 검법이다</t>
+  </si>
+  <si>
+    <t>뇌정창법： 엽가군의 입문무학，전장에서 사용하는 창법은 창을 천둥처럼 중시하는데 흔히 손에 들고 창이 이미 도착하여 적병을 당황하게 한다</t>
+  </si>
+  <si>
+    <t>이화창법: 양씨네 집의 창법은 절학이다. 사용할 때 마치 이화가 흩날리고 화려함이 극에 달한다.</t>
+  </si>
+  <si>
+    <t>지쟁도법: 길거리 도법 중의 하나로, 왕왕 무뢰한이 사용하는 방법이기 때문에 고상한 자리에 오르기 어렵다.</t>
+  </si>
+  <si>
+    <t>태조장권： 소문은 대송태조황제가 창조한 것으로 현재 무림인사들이 무예를 익히는 기본적인 수법이다</t>
+  </si>
+  <si>
+    <t>천선권법: 묘음방의 권법은 한 수 한 수가 모두 매우 부드럽고 아름답다. 마치 천선이 강림하는 것처럼 사람들의 의란과 팬들은 심지어 전투에 처해 있는 것을 잊게 한다.</t>
+  </si>
+  <si>
+    <t>천사인: 고선교의 곡조는 고선교 자신의 독공에 배합하여 듣는 사람들로 하여금 마치 천거미가 체내에서 기어다니는 것처럼 느끼게 하고 어느새 이미 몸에 맹독이 있다.</t>
+  </si>
+  <si>
+    <t>낭치봉법： 예률군 군인들이 반드시 배워야 할 몽둥이법은 안정，준칙，독의 세 글자를 중시하고 랑치봉을 무기로 배합하여 살상력이 충분하다</t>
+  </si>
+  <si>
+    <t>무목서: 엽붕은 자기가 총화하고 귀납하는 심법을 들었는데 다른 사람은 보기 어려운데 운을 토납하는 기교뿐만아니라 영병작전의 심득도 있다고 한다.</t>
+  </si>
+  <si>
+    <t>태극권: 중양자는 태극팔괘가 깨달은 권법에 따라 동정과 후발 주자를 결합시키는 것을 중시한다.</t>
+  </si>
+  <si>
+    <t>여래신장: 석법사 내장경각에 비장된 장법은 무림에서 처음 보는 사람이 드물다. 쓸 때는 여래가 세상에 내려와 천하의 사마를 주멸하는 것과 같다고 한다.</t>
+  </si>
+  <si>
+    <t>일도참: 비부성의 도법은 절학이다. 일도참은 한 칼만 있으면 된다는 뜻이다. 손놀림이 매우 신속하여 자신이 언제 칼에 맞았는지 알 수 없다.</t>
+  </si>
+  <si>
+    <t>본초의전： 본초문의 비전의전에는 사건의 모든 병증에 대한 구조법이 거의 수록되어 있다</t>
+  </si>
+  <si>
+    <t>채집과 제조는 시간이 소모되지 않습니다</t>
+  </si>
+  <si>
+    <t>가만히 있어도 시간은 계속 흐릅니다</t>
+  </si>
+  <si>
+    <t>모든 사람은 자신의 일과 휴식 시간이 있다</t>
+  </si>
+  <si>
+    <t>과로를 피하고 휴식을 취하는 것을 잊지 마세요</t>
+  </si>
+  <si>
+    <t>돗자리 에서 자면 감기가 들 수 있으니 주의하세요</t>
+  </si>
+  <si>
+    <t>몰래 숨어 있을 때는 다른 사람의 눈에 띄지 않도록 주의하세요</t>
+  </si>
+  <si>
+    <t>모든 선택이 중요하므로 조심하세요</t>
+  </si>
+  <si>
+    <t>일부 물건은 파손될 수 있습니다</t>
+  </si>
+  <si>
+    <t>다른 사람의 물건을 가져가지 마세요</t>
+  </si>
+  <si>
+    <t>도시에서 범죄를 저지르면 체포될 수 있습니다</t>
+  </si>
+  <si>
+    <t>모든 사람은 각자의 취향이 있습니다</t>
+  </si>
+  <si>
+    <t>어떤 일은 당신이 관여하지 않아도 발생합니다</t>
+  </si>
+  <si>
+    <t>원본을 사용하고 불법을 구매하지 마세요</t>
+  </si>
+  <si>
+    <t>동물 출입이 금지된 장소가 있습니다</t>
+  </si>
+  <si>
+    <t>인생에는 많은 길이 있습니다</t>
+  </si>
+  <si>
+    <t>위대한 무공은 종종 얻기가 더 어렵습니다</t>
+  </si>
+  <si>
+    <t>무공을 사용하려면 반드시 대응하는 무기가 있어야 합니다</t>
+  </si>
+  <si>
+    <t>천하에 미녀로 유명한 경성이 임안성 군방관에 온다고 하니, 그녀를 만나고 싶은 분들은 서둘러 기회를 잡으세요!</t>
+  </si>
+  <si>
+    <t>연나라 원수가 장렬히 전사하여 연운철군은 지도자가 없어졌고, 남은 군대는 이미 철수하여 북쪽으로 돌아가 초양성의 위기가 해소되었습니다!</t>
+  </si>
+  <si>
+    <t>어떤 이유에서인지 연의 군대 원수는 서둘러 연운철군을 연으로 이끌고 초양성은 다시 한 번 전쟁의 재앙을 피했고 초양성 사람들을 보호하려는 하늘의 의지가있는 것 같습니다.</t>
+  </si>
+  <si>
+    <t>풍운방</t>
+  </si>
+  <si>
+    <t>강호풍운</t>
+  </si>
+  <si>
+    <t>현상통집</t>
+  </si>
+  <si>
+    <t>종합</t>
+  </si>
+  <si>
+    <t>인물 평가</t>
+  </si>
+  <si>
+    <t>무공 평가</t>
+  </si>
+  <si>
+    <t>유희소첩사(Tips)</t>
+  </si>
+  <si>
+    <t>강호 브리핑</t>
+  </si>
+  <si>
+    <t>이번 호 뉴스</t>
+  </si>
+  <si>
+    <t>소개</t>
+  </si>
+  <si>
+    <t>일문장고(일화)</t>
+  </si>
+  <si>
+    <t>본기 {0} 실력순위
+1위 {1}
+2위 {2}
+3위 {3}</t>
+  </si>
+  <si>
+    <t>본기 {0} 순위
+1위 {1}
+2위 {2}
+3위 {3}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <name val="맑은 고딕"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1480,322 +1370,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1810,6 +1407,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2067,29 +1667,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F531"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="28.75" customWidth="1"/>
     <col min="2" max="2" width="22.25" customWidth="1"/>
     <col min="3" max="3" width="34.75" customWidth="1"/>
     <col min="4" max="4" width="91.625" customWidth="1"/>
     <col min="5" max="5" width="43.125" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2109,7 +1710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -2127,7 +1728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -2145,7 +1746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="6"/>
       <c r="B4" s="1">
         <v>0</v>
@@ -2162,8 +1763,11 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="12.75" spans="2:6">
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="13.5">
       <c r="B5" s="1">
         <v>0</v>
       </c>
@@ -2177,10 +1781,13 @@
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="12.75" spans="2:6">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="13.5">
       <c r="B6" s="1">
         <v>0</v>
       </c>
@@ -2194,10 +1801,13 @@
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="12.75" spans="2:6">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="13.5">
       <c r="B7" s="1">
         <v>0</v>
       </c>
@@ -2211,10 +1821,13 @@
         <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="12.75" spans="2:6">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="13.5">
       <c r="B8" s="1">
         <v>0</v>
       </c>
@@ -2228,10 +1841,13 @@
         <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="12.75" spans="2:6">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="13.5">
       <c r="B9" s="1">
         <v>0</v>
       </c>
@@ -2245,10 +1861,13 @@
         <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="12.75" spans="2:6">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="13.5">
       <c r="B10" s="1">
         <v>0</v>
       </c>
@@ -2262,10 +1881,13 @@
         <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="1:7">
       <c r="B11" s="1">
         <v>0</v>
       </c>
@@ -2279,10 +1901,13 @@
         <v>42</v>
       </c>
       <c r="F11" t="s">
+        <v>380</v>
+      </c>
+      <c r="G11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="1:7">
       <c r="B12" s="1">
         <v>0</v>
       </c>
@@ -2296,10 +1921,13 @@
         <v>46</v>
       </c>
       <c r="F12" t="s">
+        <v>381</v>
+      </c>
+      <c r="G12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="1:7">
       <c r="B13" s="1">
         <v>0</v>
       </c>
@@ -2313,10 +1941,13 @@
         <v>50</v>
       </c>
       <c r="F13" t="s">
+        <v>382</v>
+      </c>
+      <c r="G13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="1:7">
       <c r="B14" s="1">
         <v>0</v>
       </c>
@@ -2330,10 +1961,13 @@
         <v>54</v>
       </c>
       <c r="F14" t="s">
+        <v>386</v>
+      </c>
+      <c r="G14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="1:7">
       <c r="B15" s="1">
         <v>0</v>
       </c>
@@ -2347,10 +1981,13 @@
         <v>58</v>
       </c>
       <c r="F15" t="s">
+        <v>383</v>
+      </c>
+      <c r="G15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" ht="57" spans="2:6">
+    <row r="16" spans="1:7" ht="66.75">
       <c r="B16" s="1">
         <v>0</v>
       </c>
@@ -2364,10 +2001,13 @@
         <v>62</v>
       </c>
       <c r="F16" t="s">
+        <v>391</v>
+      </c>
+      <c r="G16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" ht="57" spans="2:6">
+    <row r="17" spans="2:7" ht="66.75">
       <c r="B17" s="1">
         <v>0</v>
       </c>
@@ -2381,10 +2021,13 @@
         <v>65</v>
       </c>
       <c r="F17" t="s">
+        <v>392</v>
+      </c>
+      <c r="G17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:7">
       <c r="B18" s="1">
         <v>0</v>
       </c>
@@ -2398,10 +2041,13 @@
         <v>69</v>
       </c>
       <c r="F18" t="s">
+        <v>318</v>
+      </c>
+      <c r="G18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:7">
       <c r="B19" s="1">
         <v>0</v>
       </c>
@@ -2415,10 +2061,13 @@
         <v>73</v>
       </c>
       <c r="F19" t="s">
+        <v>319</v>
+      </c>
+      <c r="G19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:7">
       <c r="B20" s="1">
         <v>0</v>
       </c>
@@ -2432,10 +2081,13 @@
         <v>77</v>
       </c>
       <c r="F20" t="s">
+        <v>320</v>
+      </c>
+      <c r="G20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:7">
       <c r="B21" s="1">
         <v>0</v>
       </c>
@@ -2449,1268 +2101,1550 @@
         <v>81</v>
       </c>
       <c r="F21" t="s">
+        <v>321</v>
+      </c>
+      <c r="G21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="2:7">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>84</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="D23" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="E23" t="s">
         <v>87</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
+        <v>322</v>
+      </c>
+      <c r="G23" t="s">
         <v>88</v>
       </c>
-      <c r="E23" t="s">
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F23" t="s">
+      <c r="D24" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="E24" t="s">
         <v>91</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
+        <v>323</v>
+      </c>
+      <c r="G24" t="s">
         <v>92</v>
       </c>
-      <c r="E24" t="s">
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F24" t="s">
+      <c r="D25" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="E25" t="s">
         <v>95</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
+        <v>324</v>
+      </c>
+      <c r="G25" t="s">
         <v>96</v>
       </c>
-      <c r="E25" t="s">
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F25" t="s">
+      <c r="D26" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="10" t="s">
+      <c r="E26" t="s">
         <v>99</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
+        <v>325</v>
+      </c>
+      <c r="G26" t="s">
         <v>100</v>
       </c>
-      <c r="E26" t="s">
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F26" t="s">
+      <c r="D27" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="E27" t="s">
         <v>103</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
+        <v>326</v>
+      </c>
+      <c r="G27" t="s">
         <v>104</v>
       </c>
-      <c r="E27" t="s">
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F27" t="s">
+      <c r="D28" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="E28" t="s">
         <v>107</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
+        <v>327</v>
+      </c>
+      <c r="G28" t="s">
         <v>108</v>
       </c>
-      <c r="E28" t="s">
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F28" t="s">
+      <c r="D29" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="E29" t="s">
         <v>111</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
+        <v>328</v>
+      </c>
+      <c r="G29" t="s">
         <v>112</v>
       </c>
-      <c r="E29" t="s">
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F29" t="s">
+      <c r="D30" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="10" t="s">
+      <c r="E30" t="s">
         <v>115</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
+        <v>329</v>
+      </c>
+      <c r="G30" t="s">
         <v>116</v>
       </c>
-      <c r="E30" t="s">
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F30" t="s">
+      <c r="D31" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="E31" t="s">
         <v>119</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
+        <v>330</v>
+      </c>
+      <c r="G31" t="s">
         <v>120</v>
       </c>
-      <c r="E31" t="s">
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F31" t="s">
+      <c r="D32" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="E32" t="s">
         <v>123</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
+        <v>331</v>
+      </c>
+      <c r="G32" t="s">
         <v>124</v>
       </c>
-      <c r="E32" t="s">
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F32" t="s">
+      <c r="D33" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="10" t="s">
+      <c r="E33" t="s">
         <v>127</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
+        <v>332</v>
+      </c>
+      <c r="G33" t="s">
         <v>128</v>
       </c>
-      <c r="E33" t="s">
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F33" t="s">
+      <c r="D34" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="10" t="s">
+      <c r="E34" t="s">
         <v>131</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
+        <v>333</v>
+      </c>
+      <c r="G34" t="s">
         <v>132</v>
       </c>
-      <c r="E34" t="s">
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F34" t="s">
+      <c r="D35" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="E35" t="s">
         <v>135</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
+        <v>334</v>
+      </c>
+      <c r="G35" t="s">
         <v>136</v>
       </c>
-      <c r="E35" t="s">
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F35" t="s">
+      <c r="D36" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="E36" t="s">
         <v>139</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
+        <v>335</v>
+      </c>
+      <c r="G36" t="s">
         <v>140</v>
       </c>
-      <c r="E36" t="s">
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F36" t="s">
+      <c r="D37" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="E37" t="s">
         <v>143</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
+        <v>336</v>
+      </c>
+      <c r="G37" t="s">
         <v>144</v>
       </c>
-      <c r="E37" t="s">
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F37" t="s">
+      <c r="D38" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="C38" s="10" t="s">
+      <c r="E38" t="s">
         <v>147</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
+        <v>337</v>
+      </c>
+      <c r="G38" t="s">
         <v>148</v>
       </c>
-      <c r="E38" t="s">
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F38" t="s">
+      <c r="D39" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="10" t="s">
+      <c r="E39" t="s">
         <v>151</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
+        <v>338</v>
+      </c>
+      <c r="G39" t="s">
         <v>152</v>
       </c>
-      <c r="E39" t="s">
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F39" t="s">
+      <c r="D40" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="1">
-        <v>0</v>
-      </c>
-      <c r="C40" s="10" t="s">
+      <c r="E40" t="s">
         <v>155</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
+        <v>339</v>
+      </c>
+      <c r="G40" t="s">
         <v>156</v>
       </c>
-      <c r="E40" t="s">
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F40" t="s">
+      <c r="D41" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="1">
-        <v>0</v>
-      </c>
-      <c r="C41" s="10" t="s">
+      <c r="E41" t="s">
         <v>159</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
+        <v>340</v>
+      </c>
+      <c r="G41" t="s">
         <v>160</v>
       </c>
-      <c r="E41" t="s">
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="F41" t="s">
+      <c r="D42" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="1">
-        <v>0</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="E42" t="s">
         <v>163</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
+        <v>341</v>
+      </c>
+      <c r="G42" t="s">
         <v>164</v>
       </c>
-      <c r="E42" t="s">
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F42" t="s">
+      <c r="D43" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="1">
-        <v>0</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="E43" t="s">
         <v>167</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
+        <v>342</v>
+      </c>
+      <c r="G43" t="s">
         <v>168</v>
       </c>
-      <c r="E43" t="s">
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F43" t="s">
+      <c r="D44" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="1">
-        <v>0</v>
-      </c>
-      <c r="C44" s="10" t="s">
+      <c r="E44" t="s">
         <v>171</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
+        <v>343</v>
+      </c>
+      <c r="G44" t="s">
         <v>172</v>
       </c>
-      <c r="E44" t="s">
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F44" t="s">
+      <c r="D45" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="1">
-        <v>0</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="E45" t="s">
         <v>175</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
+        <v>344</v>
+      </c>
+      <c r="G45" t="s">
         <v>176</v>
       </c>
-      <c r="E45" t="s">
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F45" t="s">
+      <c r="D46" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="1">
-        <v>0</v>
-      </c>
-      <c r="C46" s="10" t="s">
+      <c r="E46" t="s">
         <v>179</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
+        <v>345</v>
+      </c>
+      <c r="G46" t="s">
         <v>180</v>
       </c>
-      <c r="E46" t="s">
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F46" t="s">
+      <c r="D47" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="1">
-        <v>0</v>
-      </c>
-      <c r="C47" s="10" t="s">
+      <c r="E47" t="s">
         <v>183</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
+        <v>346</v>
+      </c>
+      <c r="G47" t="s">
         <v>184</v>
       </c>
-      <c r="E47" t="s">
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="F47" t="s">
+      <c r="D48" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="1">
-        <v>0</v>
-      </c>
-      <c r="C48" s="10" t="s">
+      <c r="E48" t="s">
         <v>187</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
+        <v>347</v>
+      </c>
+      <c r="G48" t="s">
         <v>188</v>
       </c>
-      <c r="E48" t="s">
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F48" t="s">
+      <c r="D49" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="1">
-        <v>0</v>
-      </c>
-      <c r="C49" s="10" t="s">
+      <c r="E49" t="s">
         <v>191</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
+        <v>348</v>
+      </c>
+      <c r="G49" t="s">
         <v>192</v>
       </c>
-      <c r="E49" t="s">
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F49" t="s">
+      <c r="D50" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="1">
-        <v>0</v>
-      </c>
-      <c r="C50" s="10" t="s">
+      <c r="E50" t="s">
         <v>195</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
+        <v>349</v>
+      </c>
+      <c r="G50" t="s">
         <v>196</v>
       </c>
-      <c r="E50" t="s">
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="F50" t="s">
+      <c r="D51" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="1">
-        <v>0</v>
-      </c>
-      <c r="C51" s="10" t="s">
+      <c r="E51" t="s">
         <v>199</v>
       </c>
-      <c r="D51" t="s">
+      <c r="F51" t="s">
+        <v>350</v>
+      </c>
+      <c r="G51" t="s">
         <v>200</v>
       </c>
-      <c r="E51" t="s">
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="F51" t="s">
+      <c r="D52" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="1">
-        <v>0</v>
-      </c>
-      <c r="C52" s="10" t="s">
+      <c r="E52" t="s">
         <v>203</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
+        <v>351</v>
+      </c>
+      <c r="G52" t="s">
         <v>204</v>
       </c>
-      <c r="E52" t="s">
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F52" t="s">
+      <c r="D53" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="1">
-        <v>0</v>
-      </c>
-      <c r="C53" s="10" t="s">
+      <c r="E53" t="s">
         <v>207</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
+        <v>352</v>
+      </c>
+      <c r="G53" t="s">
         <v>208</v>
       </c>
-      <c r="E53" t="s">
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="F53" t="s">
+      <c r="D54" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="1">
-        <v>0</v>
-      </c>
-      <c r="C54" s="10" t="s">
+      <c r="E54" t="s">
         <v>211</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
+        <v>353</v>
+      </c>
+      <c r="G54" t="s">
         <v>212</v>
       </c>
-      <c r="E54" t="s">
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F54" t="s">
+      <c r="D55" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="1">
-        <v>0</v>
-      </c>
-      <c r="C55" s="10" t="s">
+      <c r="E55" t="s">
         <v>215</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
+        <v>354</v>
+      </c>
+      <c r="G55" t="s">
         <v>216</v>
       </c>
-      <c r="E55" t="s">
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="F55" t="s">
+      <c r="D56" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="1">
-        <v>0</v>
-      </c>
-      <c r="C56" s="10" t="s">
+      <c r="E56" t="s">
         <v>219</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
+        <v>355</v>
+      </c>
+      <c r="G56" t="s">
         <v>220</v>
       </c>
-      <c r="E56" t="s">
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F56" t="s">
+      <c r="D57" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="1">
-        <v>0</v>
-      </c>
-      <c r="C57" s="10" t="s">
+      <c r="E57" t="s">
         <v>223</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
+        <v>356</v>
+      </c>
+      <c r="G57" t="s">
         <v>224</v>
       </c>
-      <c r="E57" t="s">
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="F57" t="s">
+      <c r="D58" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="1">
-        <v>0</v>
-      </c>
-      <c r="C58" s="10" t="s">
+      <c r="E58" t="s">
         <v>227</v>
       </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
+        <v>357</v>
+      </c>
+      <c r="G58" t="s">
         <v>228</v>
       </c>
-      <c r="E58" t="s">
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="F58" t="s">
+      <c r="D59" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="1">
-        <v>0</v>
-      </c>
-      <c r="C59" s="10" t="s">
+      <c r="E59" t="s">
         <v>231</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
+        <v>358</v>
+      </c>
+      <c r="G59" t="s">
         <v>232</v>
       </c>
-      <c r="E59" t="s">
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F59" t="s">
+      <c r="D60" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="1">
-        <v>0</v>
-      </c>
-      <c r="C60" s="10" t="s">
+      <c r="E60" t="s">
         <v>235</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
+        <v>359</v>
+      </c>
+      <c r="G60" t="s">
         <v>236</v>
       </c>
-      <c r="E60" t="s">
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="F60" t="s">
+      <c r="D61" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="1">
-        <v>0</v>
-      </c>
-      <c r="C61" s="11" t="s">
+      <c r="E61" t="s">
         <v>239</v>
       </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
+        <v>360</v>
+      </c>
+      <c r="G61" t="s">
         <v>240</v>
       </c>
-      <c r="E61" t="s">
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="F61" t="s">
+      <c r="D62" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="1">
-        <v>0</v>
-      </c>
-      <c r="C62" s="11" t="s">
+      <c r="E62" t="s">
         <v>243</v>
       </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
+        <v>361</v>
+      </c>
+      <c r="G62" t="s">
         <v>244</v>
       </c>
-      <c r="E62" t="s">
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F62" t="s">
+      <c r="D63" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="1">
-        <v>0</v>
-      </c>
-      <c r="C63" s="11" t="s">
+      <c r="E63" t="s">
         <v>247</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
+        <v>362</v>
+      </c>
+      <c r="G63" t="s">
         <v>248</v>
       </c>
-      <c r="E63" t="s">
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="F63" t="s">
+      <c r="D64" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="1">
-        <v>0</v>
-      </c>
-      <c r="C64" s="11" t="s">
+      <c r="E64" t="s">
         <v>251</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
+        <v>363</v>
+      </c>
+      <c r="G64" t="s">
         <v>252</v>
       </c>
-      <c r="E64" t="s">
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="F64" t="s">
+      <c r="D65" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="1">
-        <v>0</v>
-      </c>
-      <c r="C65" s="11" t="s">
+      <c r="E65" t="s">
         <v>255</v>
       </c>
-      <c r="D65" t="s">
+      <c r="F65" t="s">
+        <v>364</v>
+      </c>
+      <c r="G65" t="s">
         <v>256</v>
       </c>
-      <c r="E65" t="s">
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="F65" t="s">
+      <c r="D66" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66" s="1">
-        <v>0</v>
-      </c>
-      <c r="C66" s="11" t="s">
+      <c r="E66" t="s">
         <v>259</v>
       </c>
-      <c r="D66" t="s">
+      <c r="F66" t="s">
+        <v>365</v>
+      </c>
+      <c r="G66" t="s">
         <v>260</v>
       </c>
-      <c r="E66" t="s">
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="F66" t="s">
+      <c r="D67" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="1">
-        <v>0</v>
-      </c>
-      <c r="C67" s="11" t="s">
+      <c r="E67" t="s">
         <v>263</v>
       </c>
-      <c r="D67" t="s">
+      <c r="F67" t="s">
+        <v>366</v>
+      </c>
+      <c r="G67" t="s">
         <v>264</v>
       </c>
-      <c r="E67" t="s">
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="F67" t="s">
+      <c r="D68" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="B68" s="1">
-        <v>0</v>
-      </c>
-      <c r="C68" s="11" t="s">
+      <c r="E68" t="s">
         <v>267</v>
       </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
+        <v>367</v>
+      </c>
+      <c r="G68" t="s">
         <v>268</v>
       </c>
-      <c r="E68" t="s">
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="F68" t="s">
+      <c r="D69" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="69" spans="2:6">
-      <c r="B69" s="1">
-        <v>0</v>
-      </c>
-      <c r="C69" s="11" t="s">
+      <c r="E69" t="s">
         <v>271</v>
       </c>
-      <c r="D69" t="s">
+      <c r="F69" t="s">
+        <v>368</v>
+      </c>
+      <c r="G69" t="s">
         <v>272</v>
       </c>
-      <c r="E69" t="s">
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
+      <c r="C70" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="F69" t="s">
+      <c r="D70" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="70" spans="2:6">
-      <c r="B70" s="1">
-        <v>0</v>
-      </c>
-      <c r="C70" s="11" t="s">
+      <c r="E70" t="s">
         <v>275</v>
       </c>
-      <c r="D70" t="s">
+      <c r="F70" t="s">
+        <v>369</v>
+      </c>
+      <c r="G70" t="s">
         <v>276</v>
       </c>
-      <c r="E70" t="s">
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F70" t="s">
+      <c r="D71" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="71" spans="2:6">
-      <c r="B71" s="1">
-        <v>0</v>
-      </c>
-      <c r="C71" s="11" t="s">
+      <c r="E71" t="s">
         <v>279</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
+        <v>370</v>
+      </c>
+      <c r="G71" t="s">
         <v>280</v>
       </c>
-      <c r="E71" t="s">
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="F71" t="s">
+      <c r="D72" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="72" spans="2:6">
-      <c r="B72" s="1">
-        <v>0</v>
-      </c>
-      <c r="C72" s="11" t="s">
+      <c r="E72" t="s">
         <v>283</v>
       </c>
-      <c r="D72" t="s">
+      <c r="F72" t="s">
+        <v>371</v>
+      </c>
+      <c r="G72" t="s">
         <v>284</v>
       </c>
-      <c r="E72" t="s">
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="1">
+        <v>0</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="F72" t="s">
+      <c r="D73" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="73" spans="2:6">
-      <c r="B73" s="1">
-        <v>0</v>
-      </c>
-      <c r="C73" s="11" t="s">
+      <c r="E73" t="s">
         <v>287</v>
       </c>
-      <c r="D73" t="s">
+      <c r="F73" t="s">
+        <v>372</v>
+      </c>
+      <c r="G73" t="s">
         <v>288</v>
       </c>
-      <c r="E73" t="s">
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="F73" t="s">
+      <c r="D74" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="1">
-        <v>0</v>
-      </c>
-      <c r="C74" s="11" t="s">
+      <c r="E74" t="s">
         <v>291</v>
       </c>
-      <c r="D74" t="s">
+      <c r="F74" t="s">
+        <v>373</v>
+      </c>
+      <c r="G74" t="s">
         <v>292</v>
       </c>
-      <c r="E74" t="s">
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="F74" t="s">
+      <c r="D75" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="75" spans="2:6">
-      <c r="B75" s="1">
-        <v>0</v>
-      </c>
-      <c r="C75" s="11" t="s">
+      <c r="E75" t="s">
         <v>295</v>
       </c>
-      <c r="D75" t="s">
+      <c r="F75" t="s">
+        <v>374</v>
+      </c>
+      <c r="G75" t="s">
         <v>296</v>
       </c>
-      <c r="E75" t="s">
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
+      <c r="C76" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="F75" t="s">
+      <c r="D76" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="76" spans="2:6">
-      <c r="B76" s="1">
-        <v>0</v>
-      </c>
-      <c r="C76" s="11" t="s">
+      <c r="E76" t="s">
         <v>299</v>
       </c>
-      <c r="D76" t="s">
+      <c r="F76" t="s">
+        <v>375</v>
+      </c>
+      <c r="G76" t="s">
         <v>300</v>
       </c>
-      <c r="E76" t="s">
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="C77" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="F76" t="s">
+      <c r="D77" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="1">
-        <v>0</v>
-      </c>
-      <c r="C77" s="11" t="s">
+      <c r="E77" t="s">
         <v>303</v>
       </c>
-      <c r="D77" t="s">
+      <c r="F77" t="s">
+        <v>376</v>
+      </c>
+      <c r="G77" t="s">
         <v>304</v>
       </c>
-      <c r="E77" t="s">
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="F77" t="s">
+      <c r="D78" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="78" spans="2:6">
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78" s="11" t="s">
+      <c r="E78" t="s">
         <v>307</v>
       </c>
-      <c r="D78" t="s">
+      <c r="F78" t="s">
+        <v>377</v>
+      </c>
+      <c r="G78" t="s">
         <v>308</v>
       </c>
-      <c r="E78" t="s">
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="F78" t="s">
+      <c r="D79" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="79" spans="2:6">
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79" s="11" t="s">
+      <c r="E79" t="s">
         <v>311</v>
       </c>
-      <c r="D79" t="s">
+      <c r="F79" t="s">
+        <v>378</v>
+      </c>
+      <c r="G79" t="s">
         <v>312</v>
       </c>
-      <c r="E79" t="s">
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="F79" t="s">
+      <c r="D80" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80" s="11" t="s">
+      <c r="E80" t="s">
         <v>315</v>
       </c>
-      <c r="D80" t="s">
+      <c r="F80" t="s">
+        <v>379</v>
+      </c>
+      <c r="G80" t="s">
         <v>316</v>
-      </c>
-      <c r="E80" t="s">
-        <v>317</v>
-      </c>
-      <c r="F80" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="290" s="2" customFormat="1"/>
-    <row r="291" s="2" customFormat="1"/>
-    <row r="292" s="2" customFormat="1"/>
-    <row r="293" s="2" customFormat="1"/>
-    <row r="294" s="2" customFormat="1"/>
-    <row r="295" s="2" customFormat="1"/>
-    <row r="296" s="2" customFormat="1"/>
-    <row r="297" s="2" customFormat="1"/>
-    <row r="298" s="2" customFormat="1"/>
-    <row r="299" s="2" customFormat="1"/>
-    <row r="300" s="2" customFormat="1"/>
-    <row r="301" s="2" customFormat="1"/>
-    <row r="302" s="2" customFormat="1"/>
-    <row r="303" s="2" customFormat="1"/>
-    <row r="304" s="2" customFormat="1"/>
-    <row r="305" s="2" customFormat="1"/>
-    <row r="306" s="2" customFormat="1"/>
-    <row r="307" s="2" customFormat="1"/>
-    <row r="308" s="2" customFormat="1"/>
-    <row r="309" s="2" customFormat="1"/>
-    <row r="310" s="2" customFormat="1"/>
-    <row r="311" s="2" customFormat="1"/>
-    <row r="312" s="2" customFormat="1"/>
-    <row r="313" s="2" customFormat="1"/>
-    <row r="314" s="2" customFormat="1"/>
-    <row r="315" s="2" customFormat="1"/>
-    <row r="316" s="2" customFormat="1"/>
-    <row r="317" s="2" customFormat="1"/>
-    <row r="318" s="2" customFormat="1"/>
-    <row r="319" s="2" customFormat="1"/>
-    <row r="320" s="2" customFormat="1"/>
-    <row r="321" s="2" customFormat="1"/>
-    <row r="322" s="2" customFormat="1"/>
-    <row r="323" s="2" customFormat="1"/>
-    <row r="324" s="2" customFormat="1"/>
-    <row r="325" s="2" customFormat="1"/>
-    <row r="326" s="2" customFormat="1"/>
-    <row r="327" s="2" customFormat="1"/>
-    <row r="328" s="2" customFormat="1"/>
-    <row r="329" s="2" customFormat="1"/>
-    <row r="330" s="2" customFormat="1"/>
-    <row r="331" s="2" customFormat="1"/>
-    <row r="332" s="2" customFormat="1"/>
-    <row r="333" s="2" customFormat="1"/>
-    <row r="334" s="2" customFormat="1"/>
-    <row r="335" s="2" customFormat="1"/>
-    <row r="336" s="2" customFormat="1"/>
-    <row r="337" s="2" customFormat="1"/>
-    <row r="338" s="2" customFormat="1"/>
-    <row r="339" s="2" customFormat="1"/>
-    <row r="340" s="2" customFormat="1"/>
-    <row r="341" s="2" customFormat="1"/>
-    <row r="342" s="2" customFormat="1"/>
-    <row r="343" s="2" customFormat="1"/>
-    <row r="344" s="2" customFormat="1"/>
-    <row r="345" s="2" customFormat="1"/>
-    <row r="346" s="2" customFormat="1"/>
-    <row r="347" s="2" customFormat="1"/>
-    <row r="348" s="2" customFormat="1"/>
-    <row r="349" s="2" customFormat="1"/>
-    <row r="350" s="2" customFormat="1"/>
-    <row r="351" s="2" customFormat="1"/>
-    <row r="352" s="2" customFormat="1"/>
-    <row r="353" s="2" customFormat="1"/>
-    <row r="354" s="2" customFormat="1"/>
-    <row r="355" s="2" customFormat="1"/>
-    <row r="356" s="2" customFormat="1"/>
-    <row r="357" s="2" customFormat="1"/>
-    <row r="358" s="2" customFormat="1"/>
-    <row r="359" s="2" customFormat="1"/>
-    <row r="360" s="2" customFormat="1"/>
-    <row r="361" s="2" customFormat="1"/>
-    <row r="362" s="2" customFormat="1"/>
-    <row r="363" s="2" customFormat="1"/>
-    <row r="364" s="2" customFormat="1"/>
-    <row r="365" s="2" customFormat="1"/>
-    <row r="366" s="2" customFormat="1"/>
-    <row r="367" s="2" customFormat="1"/>
-    <row r="368" s="2" customFormat="1"/>
-    <row r="369" s="2" customFormat="1"/>
-    <row r="370" s="2" customFormat="1"/>
-    <row r="371" s="2" customFormat="1"/>
-    <row r="372" s="2" customFormat="1"/>
-    <row r="373" s="2" customFormat="1"/>
-    <row r="374" s="2" customFormat="1"/>
-    <row r="375" s="2" customFormat="1"/>
-    <row r="376" s="2" customFormat="1"/>
-    <row r="377" s="2" customFormat="1"/>
-    <row r="378" s="2" customFormat="1"/>
-    <row r="379" s="2" customFormat="1"/>
-    <row r="380" s="2" customFormat="1"/>
-    <row r="381" s="2" customFormat="1"/>
-    <row r="382" s="2" customFormat="1"/>
-    <row r="383" s="2" customFormat="1"/>
-    <row r="384" s="2" customFormat="1"/>
-    <row r="385" s="2" customFormat="1"/>
-    <row r="386" s="2" customFormat="1"/>
-    <row r="387" s="2" customFormat="1"/>
-    <row r="388" s="2" customFormat="1"/>
-    <row r="389" s="2" customFormat="1"/>
-    <row r="390" s="2" customFormat="1"/>
-    <row r="391" s="2" customFormat="1"/>
-    <row r="392" s="2" customFormat="1"/>
-    <row r="393" s="2" customFormat="1"/>
-    <row r="394" s="2" customFormat="1"/>
-    <row r="395" s="2" customFormat="1"/>
-    <row r="396" s="2" customFormat="1"/>
-    <row r="397" s="2" customFormat="1"/>
-    <row r="398" s="2" customFormat="1"/>
-    <row r="399" s="2" customFormat="1"/>
-    <row r="400" s="2" customFormat="1"/>
-    <row r="401" s="2" customFormat="1"/>
-    <row r="402" s="2" customFormat="1"/>
-    <row r="403" s="2" customFormat="1"/>
-    <row r="404" s="2" customFormat="1"/>
-    <row r="405" s="2" customFormat="1"/>
-    <row r="406" s="2" customFormat="1"/>
-    <row r="407" s="2" customFormat="1"/>
-    <row r="408" s="2" customFormat="1"/>
-    <row r="409" s="2" customFormat="1"/>
-    <row r="410" s="2" customFormat="1"/>
-    <row r="411" s="2" customFormat="1"/>
-    <row r="412" s="2" customFormat="1"/>
-    <row r="413" s="2" customFormat="1"/>
-    <row r="414" s="2" customFormat="1"/>
-    <row r="415" s="2" customFormat="1"/>
-    <row r="416" s="2" customFormat="1"/>
-    <row r="417" s="2" customFormat="1"/>
-    <row r="418" s="2" customFormat="1"/>
-    <row r="419" s="2" customFormat="1"/>
-    <row r="420" s="2" customFormat="1"/>
-    <row r="421" s="2" customFormat="1"/>
-    <row r="422" s="2" customFormat="1"/>
-    <row r="423" s="2" customFormat="1"/>
-    <row r="424" s="2" customFormat="1"/>
-    <row r="425" s="2" customFormat="1"/>
-    <row r="426" s="2" customFormat="1"/>
-    <row r="427" s="2" customFormat="1"/>
-    <row r="428" s="2" customFormat="1"/>
-    <row r="429" s="2" customFormat="1"/>
-    <row r="430" s="2" customFormat="1"/>
-    <row r="431" s="2" customFormat="1"/>
-    <row r="432" s="2" customFormat="1"/>
-    <row r="433" s="2" customFormat="1"/>
-    <row r="434" s="2" customFormat="1"/>
-    <row r="435" s="2" customFormat="1"/>
-    <row r="436" s="2" customFormat="1"/>
-    <row r="437" s="2" customFormat="1"/>
-    <row r="438" s="2" customFormat="1"/>
-    <row r="439" s="2" customFormat="1"/>
-    <row r="440" s="2" customFormat="1"/>
-    <row r="441" s="2" customFormat="1"/>
-    <row r="442" s="2" customFormat="1"/>
-    <row r="443" s="2" customFormat="1"/>
-    <row r="444" s="2" customFormat="1"/>
-    <row r="445" s="2" customFormat="1"/>
-    <row r="446" s="2" customFormat="1"/>
-    <row r="447" s="2" customFormat="1"/>
-    <row r="448" s="2" customFormat="1"/>
-    <row r="449" s="2" customFormat="1"/>
-    <row r="450" s="2" customFormat="1"/>
-    <row r="451" s="2" customFormat="1"/>
-    <row r="452" s="2" customFormat="1"/>
-    <row r="453" s="2" customFormat="1"/>
-    <row r="454" s="2" customFormat="1"/>
-    <row r="455" s="2" customFormat="1"/>
-    <row r="456" s="2" customFormat="1"/>
-    <row r="457" s="2" customFormat="1"/>
-    <row r="458" s="2" customFormat="1"/>
-    <row r="459" s="2" customFormat="1"/>
-    <row r="460" s="2" customFormat="1"/>
-    <row r="461" s="2" customFormat="1"/>
-    <row r="462" s="2" customFormat="1"/>
-    <row r="463" s="2" customFormat="1"/>
-    <row r="464" s="2" customFormat="1"/>
-    <row r="465" s="2" customFormat="1"/>
-    <row r="466" s="2" customFormat="1"/>
-    <row r="467" s="2" customFormat="1"/>
-    <row r="468" s="2" customFormat="1"/>
-    <row r="469" s="2" customFormat="1"/>
-    <row r="470" s="2" customFormat="1"/>
-    <row r="471" s="2" customFormat="1"/>
-    <row r="472" s="2" customFormat="1"/>
-    <row r="473" s="2" customFormat="1"/>
-    <row r="474" s="2" customFormat="1"/>
-    <row r="475" s="2" customFormat="1"/>
-    <row r="476" s="2" customFormat="1"/>
-    <row r="477" s="2" customFormat="1"/>
-    <row r="478" s="2" customFormat="1"/>
-    <row r="479" s="2" customFormat="1"/>
-    <row r="480" s="2" customFormat="1"/>
-    <row r="481" s="2" customFormat="1"/>
-    <row r="482" s="2" customFormat="1"/>
-    <row r="483" s="2" customFormat="1"/>
-    <row r="484" s="2" customFormat="1"/>
-    <row r="485" s="2" customFormat="1"/>
-    <row r="486" s="2" customFormat="1"/>
-    <row r="487" s="2" customFormat="1"/>
-    <row r="488" s="2" customFormat="1"/>
-    <row r="489" s="2" customFormat="1"/>
-    <row r="490" s="2" customFormat="1"/>
-    <row r="491" s="2" customFormat="1"/>
-    <row r="492" s="2" customFormat="1"/>
-    <row r="493" s="2" customFormat="1"/>
-    <row r="494" s="2" customFormat="1"/>
-    <row r="495" s="2" customFormat="1"/>
-    <row r="496" s="2" customFormat="1"/>
-    <row r="497" s="2" customFormat="1"/>
-    <row r="498" s="2" customFormat="1"/>
-    <row r="499" s="2" customFormat="1"/>
-    <row r="500" s="2" customFormat="1"/>
-    <row r="501" s="2" customFormat="1"/>
-    <row r="502" s="2" customFormat="1"/>
-    <row r="503" s="2" customFormat="1"/>
-    <row r="504" s="2" customFormat="1"/>
-    <row r="505" s="2" customFormat="1"/>
-    <row r="506" s="2" customFormat="1"/>
-    <row r="507" s="2" customFormat="1"/>
-    <row r="508" s="2" customFormat="1"/>
-    <row r="509" s="2" customFormat="1"/>
-    <row r="510" s="2" customFormat="1"/>
-    <row r="511" s="2" customFormat="1"/>
-    <row r="512" s="2" customFormat="1"/>
-    <row r="513" s="2" customFormat="1"/>
-    <row r="514" s="2" customFormat="1"/>
-    <row r="515" s="2" customFormat="1"/>
-    <row r="516" s="2" customFormat="1"/>
-    <row r="517" s="2" customFormat="1"/>
-    <row r="518" s="2" customFormat="1"/>
-    <row r="519" s="2" customFormat="1"/>
-    <row r="520" s="2" customFormat="1"/>
-    <row r="521" s="2" customFormat="1"/>
-    <row r="522" s="2" customFormat="1"/>
-    <row r="523" s="2" customFormat="1"/>
-    <row r="524" s="2" customFormat="1"/>
-    <row r="525" s="2" customFormat="1"/>
-    <row r="526" s="2" customFormat="1"/>
-    <row r="527" s="2" customFormat="1"/>
-    <row r="528" s="2" customFormat="1"/>
-    <row r="529" s="2" customFormat="1"/>
-    <row r="530" s="2" customFormat="1"/>
-    <row r="531" s="2" customFormat="1"/>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="16.5">
+      <c r="A290" s="2"/>
+      <c r="B290" s="2"/>
+      <c r="C290" s="2"/>
+      <c r="D290" s="2"/>
+      <c r="E290" s="2"/>
+      <c r="F290" s="2"/>
+    </row>
+    <row r="291" spans="1:6" ht="16.5">
+      <c r="A291" s="2"/>
+      <c r="B291" s="2"/>
+      <c r="C291" s="2"/>
+      <c r="D291" s="2"/>
+      <c r="E291" s="2"/>
+      <c r="F291" s="2"/>
+    </row>
+    <row r="292" spans="1:6" ht="16.5">
+      <c r="A292" s="2"/>
+      <c r="B292" s="2"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2"/>
+      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
+    </row>
+    <row r="293" spans="1:6" ht="16.5">
+      <c r="A293" s="2"/>
+      <c r="B293" s="2"/>
+      <c r="C293" s="2"/>
+      <c r="D293" s="2"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
+    </row>
+    <row r="294" spans="1:6" ht="16.5">
+      <c r="A294" s="2"/>
+      <c r="B294" s="2"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="2"/>
+      <c r="E294" s="2"/>
+      <c r="F294" s="2"/>
+    </row>
+    <row r="295" spans="1:6" ht="16.5">
+      <c r="A295" s="2"/>
+      <c r="B295" s="2"/>
+      <c r="C295" s="2"/>
+      <c r="D295" s="2"/>
+      <c r="E295" s="2"/>
+      <c r="F295" s="2"/>
+    </row>
+    <row r="296" spans="1:6" ht="16.5">
+      <c r="A296" s="2"/>
+      <c r="B296" s="2"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="2"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
+    </row>
+    <row r="297" spans="1:6" ht="16.5">
+      <c r="A297" s="2"/>
+      <c r="B297" s="2"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="2"/>
+      <c r="E297" s="2"/>
+      <c r="F297" s="2"/>
+    </row>
+    <row r="298" spans="1:6" ht="16.5">
+      <c r="A298" s="2"/>
+      <c r="B298" s="2"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="2"/>
+      <c r="E298" s="2"/>
+      <c r="F298" s="2"/>
+    </row>
+    <row r="299" spans="1:6" ht="16.5">
+      <c r="A299" s="2"/>
+      <c r="B299" s="2"/>
+      <c r="C299" s="2"/>
+      <c r="D299" s="2"/>
+      <c r="E299" s="2"/>
+      <c r="F299" s="2"/>
+    </row>
+    <row r="300" spans="1:6" ht="16.5">
+      <c r="A300" s="2"/>
+      <c r="B300" s="2"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="2"/>
+      <c r="E300" s="2"/>
+      <c r="F300" s="2"/>
+    </row>
+    <row r="301" spans="1:6" ht="16.5">
+      <c r="A301" s="2"/>
+      <c r="B301" s="2"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="2"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
+    </row>
+    <row r="302" spans="1:6" ht="16.5">
+      <c r="A302" s="2"/>
+      <c r="B302" s="2"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="2"/>
+      <c r="E302" s="2"/>
+      <c r="F302" s="2"/>
+    </row>
+    <row r="303" spans="1:6" ht="16.5">
+      <c r="A303" s="2"/>
+      <c r="B303" s="2"/>
+      <c r="C303" s="2"/>
+      <c r="D303" s="2"/>
+      <c r="E303" s="2"/>
+      <c r="F303" s="2"/>
+    </row>
+    <row r="304" spans="1:6" ht="16.5">
+      <c r="A304" s="2"/>
+      <c r="B304" s="2"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="2"/>
+      <c r="E304" s="2"/>
+      <c r="F304" s="2"/>
+    </row>
+    <row r="305" s="2" customFormat="1" ht="16.5"/>
+    <row r="306" s="2" customFormat="1" ht="16.5"/>
+    <row r="307" s="2" customFormat="1" ht="16.5"/>
+    <row r="308" s="2" customFormat="1" ht="16.5"/>
+    <row r="309" s="2" customFormat="1" ht="16.5"/>
+    <row r="310" s="2" customFormat="1" ht="16.5"/>
+    <row r="311" s="2" customFormat="1" ht="16.5"/>
+    <row r="312" s="2" customFormat="1" ht="16.5"/>
+    <row r="313" s="2" customFormat="1" ht="16.5"/>
+    <row r="314" s="2" customFormat="1" ht="16.5"/>
+    <row r="315" s="2" customFormat="1" ht="16.5"/>
+    <row r="316" s="2" customFormat="1" ht="16.5"/>
+    <row r="317" s="2" customFormat="1" ht="16.5"/>
+    <row r="318" s="2" customFormat="1" ht="16.5"/>
+    <row r="319" s="2" customFormat="1" ht="16.5"/>
+    <row r="320" s="2" customFormat="1" ht="16.5"/>
+    <row r="321" s="2" customFormat="1" ht="16.5"/>
+    <row r="322" s="2" customFormat="1" ht="16.5"/>
+    <row r="323" s="2" customFormat="1" ht="16.5"/>
+    <row r="324" s="2" customFormat="1" ht="16.5"/>
+    <row r="325" s="2" customFormat="1" ht="16.5"/>
+    <row r="326" s="2" customFormat="1" ht="16.5"/>
+    <row r="327" s="2" customFormat="1" ht="16.5"/>
+    <row r="328" s="2" customFormat="1" ht="16.5"/>
+    <row r="329" s="2" customFormat="1" ht="16.5"/>
+    <row r="330" s="2" customFormat="1" ht="16.5"/>
+    <row r="331" s="2" customFormat="1" ht="16.5"/>
+    <row r="332" s="2" customFormat="1" ht="16.5"/>
+    <row r="333" s="2" customFormat="1" ht="16.5"/>
+    <row r="334" s="2" customFormat="1" ht="16.5"/>
+    <row r="335" s="2" customFormat="1" ht="16.5"/>
+    <row r="336" s="2" customFormat="1" ht="16.5"/>
+    <row r="337" s="2" customFormat="1" ht="16.5"/>
+    <row r="338" s="2" customFormat="1" ht="16.5"/>
+    <row r="339" s="2" customFormat="1" ht="16.5"/>
+    <row r="340" s="2" customFormat="1" ht="16.5"/>
+    <row r="341" s="2" customFormat="1" ht="16.5"/>
+    <row r="342" s="2" customFormat="1" ht="16.5"/>
+    <row r="343" s="2" customFormat="1" ht="16.5"/>
+    <row r="344" s="2" customFormat="1" ht="16.5"/>
+    <row r="345" s="2" customFormat="1" ht="16.5"/>
+    <row r="346" s="2" customFormat="1" ht="16.5"/>
+    <row r="347" s="2" customFormat="1" ht="16.5"/>
+    <row r="348" s="2" customFormat="1" ht="16.5"/>
+    <row r="349" s="2" customFormat="1" ht="16.5"/>
+    <row r="350" s="2" customFormat="1" ht="16.5"/>
+    <row r="351" s="2" customFormat="1" ht="16.5"/>
+    <row r="352" s="2" customFormat="1" ht="16.5"/>
+    <row r="353" s="2" customFormat="1" ht="16.5"/>
+    <row r="354" s="2" customFormat="1" ht="16.5"/>
+    <row r="355" s="2" customFormat="1" ht="16.5"/>
+    <row r="356" s="2" customFormat="1" ht="16.5"/>
+    <row r="357" s="2" customFormat="1" ht="16.5"/>
+    <row r="358" s="2" customFormat="1" ht="16.5"/>
+    <row r="359" s="2" customFormat="1" ht="16.5"/>
+    <row r="360" s="2" customFormat="1" ht="16.5"/>
+    <row r="361" s="2" customFormat="1" ht="16.5"/>
+    <row r="362" s="2" customFormat="1" ht="16.5"/>
+    <row r="363" s="2" customFormat="1" ht="16.5"/>
+    <row r="364" s="2" customFormat="1" ht="16.5"/>
+    <row r="365" s="2" customFormat="1" ht="16.5"/>
+    <row r="366" s="2" customFormat="1" ht="16.5"/>
+    <row r="367" s="2" customFormat="1" ht="16.5"/>
+    <row r="368" s="2" customFormat="1" ht="16.5"/>
+    <row r="369" s="2" customFormat="1" ht="16.5"/>
+    <row r="370" s="2" customFormat="1" ht="16.5"/>
+    <row r="371" s="2" customFormat="1" ht="16.5"/>
+    <row r="372" s="2" customFormat="1" ht="16.5"/>
+    <row r="373" s="2" customFormat="1" ht="16.5"/>
+    <row r="374" s="2" customFormat="1" ht="16.5"/>
+    <row r="375" s="2" customFormat="1" ht="16.5"/>
+    <row r="376" s="2" customFormat="1" ht="16.5"/>
+    <row r="377" s="2" customFormat="1" ht="16.5"/>
+    <row r="378" s="2" customFormat="1" ht="16.5"/>
+    <row r="379" s="2" customFormat="1" ht="16.5"/>
+    <row r="380" s="2" customFormat="1" ht="16.5"/>
+    <row r="381" s="2" customFormat="1" ht="16.5"/>
+    <row r="382" s="2" customFormat="1" ht="16.5"/>
+    <row r="383" s="2" customFormat="1" ht="16.5"/>
+    <row r="384" s="2" customFormat="1" ht="16.5"/>
+    <row r="385" s="2" customFormat="1" ht="16.5"/>
+    <row r="386" s="2" customFormat="1" ht="16.5"/>
+    <row r="387" s="2" customFormat="1" ht="16.5"/>
+    <row r="388" s="2" customFormat="1" ht="16.5"/>
+    <row r="389" s="2" customFormat="1" ht="16.5"/>
+    <row r="390" s="2" customFormat="1" ht="16.5"/>
+    <row r="391" s="2" customFormat="1" ht="16.5"/>
+    <row r="392" s="2" customFormat="1" ht="16.5"/>
+    <row r="393" s="2" customFormat="1" ht="16.5"/>
+    <row r="394" s="2" customFormat="1" ht="16.5"/>
+    <row r="395" s="2" customFormat="1" ht="16.5"/>
+    <row r="396" s="2" customFormat="1" ht="16.5"/>
+    <row r="397" s="2" customFormat="1" ht="16.5"/>
+    <row r="398" s="2" customFormat="1" ht="16.5"/>
+    <row r="399" s="2" customFormat="1" ht="16.5"/>
+    <row r="400" s="2" customFormat="1" ht="16.5"/>
+    <row r="401" s="2" customFormat="1" ht="16.5"/>
+    <row r="402" s="2" customFormat="1" ht="16.5"/>
+    <row r="403" s="2" customFormat="1" ht="16.5"/>
+    <row r="404" s="2" customFormat="1" ht="16.5"/>
+    <row r="405" s="2" customFormat="1" ht="16.5"/>
+    <row r="406" s="2" customFormat="1" ht="16.5"/>
+    <row r="407" s="2" customFormat="1" ht="16.5"/>
+    <row r="408" s="2" customFormat="1" ht="16.5"/>
+    <row r="409" s="2" customFormat="1" ht="16.5"/>
+    <row r="410" s="2" customFormat="1" ht="16.5"/>
+    <row r="411" s="2" customFormat="1" ht="16.5"/>
+    <row r="412" s="2" customFormat="1" ht="16.5"/>
+    <row r="413" s="2" customFormat="1" ht="16.5"/>
+    <row r="414" s="2" customFormat="1" ht="16.5"/>
+    <row r="415" s="2" customFormat="1" ht="16.5"/>
+    <row r="416" s="2" customFormat="1" ht="16.5"/>
+    <row r="417" s="2" customFormat="1" ht="16.5"/>
+    <row r="418" s="2" customFormat="1" ht="16.5"/>
+    <row r="419" s="2" customFormat="1" ht="16.5"/>
+    <row r="420" s="2" customFormat="1" ht="16.5"/>
+    <row r="421" s="2" customFormat="1" ht="16.5"/>
+    <row r="422" s="2" customFormat="1" ht="16.5"/>
+    <row r="423" s="2" customFormat="1" ht="16.5"/>
+    <row r="424" s="2" customFormat="1" ht="16.5"/>
+    <row r="425" s="2" customFormat="1" ht="16.5"/>
+    <row r="426" s="2" customFormat="1" ht="16.5"/>
+    <row r="427" s="2" customFormat="1" ht="16.5"/>
+    <row r="428" s="2" customFormat="1" ht="16.5"/>
+    <row r="429" s="2" customFormat="1" ht="16.5"/>
+    <row r="430" s="2" customFormat="1" ht="16.5"/>
+    <row r="431" s="2" customFormat="1" ht="16.5"/>
+    <row r="432" s="2" customFormat="1" ht="16.5"/>
+    <row r="433" s="2" customFormat="1" ht="16.5"/>
+    <row r="434" s="2" customFormat="1" ht="16.5"/>
+    <row r="435" s="2" customFormat="1" ht="16.5"/>
+    <row r="436" s="2" customFormat="1" ht="16.5"/>
+    <row r="437" s="2" customFormat="1" ht="16.5"/>
+    <row r="438" s="2" customFormat="1" ht="16.5"/>
+    <row r="439" s="2" customFormat="1" ht="16.5"/>
+    <row r="440" s="2" customFormat="1" ht="16.5"/>
+    <row r="441" s="2" customFormat="1" ht="16.5"/>
+    <row r="442" s="2" customFormat="1" ht="16.5"/>
+    <row r="443" s="2" customFormat="1" ht="16.5"/>
+    <row r="444" s="2" customFormat="1" ht="16.5"/>
+    <row r="445" s="2" customFormat="1" ht="16.5"/>
+    <row r="446" s="2" customFormat="1" ht="16.5"/>
+    <row r="447" s="2" customFormat="1" ht="16.5"/>
+    <row r="448" s="2" customFormat="1" ht="16.5"/>
+    <row r="449" s="2" customFormat="1" ht="16.5"/>
+    <row r="450" s="2" customFormat="1" ht="16.5"/>
+    <row r="451" s="2" customFormat="1" ht="16.5"/>
+    <row r="452" s="2" customFormat="1" ht="16.5"/>
+    <row r="453" s="2" customFormat="1" ht="16.5"/>
+    <row r="454" s="2" customFormat="1" ht="16.5"/>
+    <row r="455" s="2" customFormat="1" ht="16.5"/>
+    <row r="456" s="2" customFormat="1" ht="16.5"/>
+    <row r="457" s="2" customFormat="1" ht="16.5"/>
+    <row r="458" s="2" customFormat="1" ht="16.5"/>
+    <row r="459" s="2" customFormat="1" ht="16.5"/>
+    <row r="460" s="2" customFormat="1" ht="16.5"/>
+    <row r="461" s="2" customFormat="1" ht="16.5"/>
+    <row r="462" s="2" customFormat="1" ht="16.5"/>
+    <row r="463" s="2" customFormat="1" ht="16.5"/>
+    <row r="464" s="2" customFormat="1" ht="16.5"/>
+    <row r="465" s="2" customFormat="1" ht="16.5"/>
+    <row r="466" s="2" customFormat="1" ht="16.5"/>
+    <row r="467" s="2" customFormat="1" ht="16.5"/>
+    <row r="468" s="2" customFormat="1" ht="16.5"/>
+    <row r="469" s="2" customFormat="1" ht="16.5"/>
+    <row r="470" s="2" customFormat="1" ht="16.5"/>
+    <row r="471" s="2" customFormat="1" ht="16.5"/>
+    <row r="472" s="2" customFormat="1" ht="16.5"/>
+    <row r="473" s="2" customFormat="1" ht="16.5"/>
+    <row r="474" s="2" customFormat="1" ht="16.5"/>
+    <row r="475" s="2" customFormat="1" ht="16.5"/>
+    <row r="476" s="2" customFormat="1" ht="16.5"/>
+    <row r="477" s="2" customFormat="1" ht="16.5"/>
+    <row r="478" s="2" customFormat="1" ht="16.5"/>
+    <row r="479" s="2" customFormat="1" ht="16.5"/>
+    <row r="480" s="2" customFormat="1" ht="16.5"/>
+    <row r="481" s="2" customFormat="1" ht="16.5"/>
+    <row r="482" s="2" customFormat="1" ht="16.5"/>
+    <row r="483" s="2" customFormat="1" ht="16.5"/>
+    <row r="484" s="2" customFormat="1" ht="16.5"/>
+    <row r="485" s="2" customFormat="1" ht="16.5"/>
+    <row r="486" s="2" customFormat="1" ht="16.5"/>
+    <row r="487" s="2" customFormat="1" ht="16.5"/>
+    <row r="488" s="2" customFormat="1" ht="16.5"/>
+    <row r="489" s="2" customFormat="1" ht="16.5"/>
+    <row r="490" s="2" customFormat="1" ht="16.5"/>
+    <row r="491" s="2" customFormat="1" ht="16.5"/>
+    <row r="492" s="2" customFormat="1" ht="16.5"/>
+    <row r="493" s="2" customFormat="1" ht="16.5"/>
+    <row r="494" s="2" customFormat="1" ht="16.5"/>
+    <row r="495" s="2" customFormat="1" ht="16.5"/>
+    <row r="496" s="2" customFormat="1" ht="16.5"/>
+    <row r="497" s="2" customFormat="1" ht="16.5"/>
+    <row r="498" s="2" customFormat="1" ht="16.5"/>
+    <row r="499" s="2" customFormat="1" ht="16.5"/>
+    <row r="500" s="2" customFormat="1" ht="16.5"/>
+    <row r="501" s="2" customFormat="1" ht="16.5"/>
+    <row r="502" s="2" customFormat="1" ht="16.5"/>
+    <row r="503" s="2" customFormat="1" ht="16.5"/>
+    <row r="504" s="2" customFormat="1" ht="16.5"/>
+    <row r="505" s="2" customFormat="1" ht="16.5"/>
+    <row r="506" s="2" customFormat="1" ht="16.5"/>
+    <row r="507" s="2" customFormat="1" ht="16.5"/>
+    <row r="508" s="2" customFormat="1" ht="16.5"/>
+    <row r="509" s="2" customFormat="1" ht="16.5"/>
+    <row r="510" s="2" customFormat="1" ht="16.5"/>
+    <row r="511" s="2" customFormat="1" ht="16.5"/>
+    <row r="512" s="2" customFormat="1" ht="16.5"/>
+    <row r="513" s="2" customFormat="1" ht="16.5"/>
+    <row r="514" s="2" customFormat="1" ht="16.5"/>
+    <row r="515" s="2" customFormat="1" ht="16.5"/>
+    <row r="516" s="2" customFormat="1" ht="16.5"/>
+    <row r="517" s="2" customFormat="1" ht="16.5"/>
+    <row r="518" s="2" customFormat="1" ht="16.5"/>
+    <row r="519" s="2" customFormat="1" ht="16.5"/>
+    <row r="520" s="2" customFormat="1" ht="16.5"/>
+    <row r="521" s="2" customFormat="1" ht="16.5"/>
+    <row r="522" s="2" customFormat="1" ht="16.5"/>
+    <row r="523" s="2" customFormat="1" ht="16.5"/>
+    <row r="524" s="2" customFormat="1" ht="16.5"/>
+    <row r="525" s="2" customFormat="1" ht="16.5"/>
+    <row r="526" s="2" customFormat="1" ht="16.5"/>
+    <row r="527" s="2" customFormat="1" ht="16.5"/>
+    <row r="528" s="2" customFormat="1" ht="16.5"/>
+    <row r="529" s="2" customFormat="1" ht="16.5"/>
+    <row r="530" s="2" customFormat="1" ht="16.5"/>
+    <row r="531" s="2" customFormat="1" ht="16.5"/>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C1:C3">
     <cfRule type="duplicateValues" dxfId="0" priority="46"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>